--- a/arch-automate/automate-core/src/test/resources/xls/uni-life-ums.xlsx
+++ b/arch-automate/automate-core/src/test/resources/xls/uni-life-ums.xlsx
@@ -837,12 +837,12 @@
     <t>postIcon</t>
   </si>
   <si>
+    <t>decimal</t>
+  </si>
+  <si>
     <t>salary</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
     <t>19,4</t>
   </si>
   <si>
@@ -945,10 +945,10 @@
     <t>会员级别ID</t>
   </si>
   <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>startTime</t>
-  </si>
-  <si>
-    <t>datetime</t>
   </si>
   <si>
     <t>开始时间</t>
@@ -2922,9 +2922,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -2970,8 +2970,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2984,46 +2999,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3037,18 +3021,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3068,6 +3053,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -3083,9 +3092,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3093,15 +3101,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3115,7 +3115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3148,7 +3148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3160,7 +3160,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3172,49 +3184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3232,25 +3202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3262,31 +3214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3304,7 +3238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3316,13 +3256,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3416,6 +3416,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3427,17 +3457,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3460,36 +3490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3501,148 +3501,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3969,8 +3969,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="B1:J109" totalsRowShown="0">
   <autoFilter ref="B1:J109"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="列名/Column" dataDxfId="10"/>
-    <tableColumn id="2" name="数据类型/Type" dataDxfId="11"/>
+    <tableColumn id="2" name="数据类型/Type" dataDxfId="10"/>
+    <tableColumn id="1" name="列名/Column" dataDxfId="11"/>
     <tableColumn id="3" name="长度/Length" dataDxfId="12"/>
     <tableColumn id="4" name="是否为空/Null(Y,N)" dataDxfId="13"/>
     <tableColumn id="5" name="默认值/Default" dataDxfId="14"/>
@@ -22224,7 +22224,7 @@
         <v>776</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="1">
         <v>32</v>
@@ -22571,7 +22571,7 @@
         <v>816</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>817</v>
@@ -22586,7 +22586,7 @@
         <v>819</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>817</v>
@@ -22811,7 +22811,7 @@
         <v>845</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>817</v>
@@ -22826,7 +22826,7 @@
         <v>847</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>817</v>
@@ -22841,7 +22841,7 @@
         <v>849</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>817</v>
@@ -22856,7 +22856,7 @@
         <v>851</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>817</v>
@@ -22871,7 +22871,7 @@
         <v>853</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>817</v>
@@ -22886,7 +22886,7 @@
         <v>855</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>817</v>
@@ -22901,7 +22901,7 @@
         <v>857</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>817</v>
@@ -22916,7 +22916,7 @@
         <v>859</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>817</v>
@@ -22931,7 +22931,7 @@
         <v>861</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>817</v>
@@ -22946,7 +22946,7 @@
         <v>863</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>817</v>
@@ -22961,7 +22961,7 @@
         <v>865</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>817</v>
@@ -22976,7 +22976,7 @@
         <v>867</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>817</v>
@@ -22991,7 +22991,7 @@
         <v>869</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>817</v>
@@ -23006,7 +23006,7 @@
         <v>871</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>817</v>
@@ -23021,7 +23021,7 @@
         <v>873</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>817</v>
@@ -23105,7 +23105,7 @@
         <v>879</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>817</v>
@@ -23120,7 +23120,7 @@
         <v>881</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>817</v>
@@ -23135,7 +23135,7 @@
         <v>883</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>817</v>
@@ -23150,7 +23150,7 @@
         <v>884</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>817</v>
@@ -23165,7 +23165,7 @@
         <v>886</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>817</v>
@@ -23180,7 +23180,7 @@
         <v>888</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>817</v>
@@ -23195,7 +23195,7 @@
         <v>890</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>817</v>
@@ -23210,7 +23210,7 @@
         <v>892</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>817</v>
@@ -23225,7 +23225,7 @@
         <v>894</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>817</v>
@@ -23240,7 +23240,7 @@
         <v>896</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>817</v>
@@ -23255,7 +23255,7 @@
         <v>898</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>817</v>
@@ -23270,7 +23270,7 @@
         <v>900</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>817</v>
@@ -23285,7 +23285,7 @@
         <v>902</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>817</v>
@@ -23300,7 +23300,7 @@
         <v>904</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>817</v>
@@ -23315,7 +23315,7 @@
         <v>906</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>817</v>
@@ -23330,7 +23330,7 @@
         <v>908</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>817</v>
@@ -23345,7 +23345,7 @@
         <v>910</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>817</v>
@@ -23360,7 +23360,7 @@
         <v>912</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>817</v>
@@ -23447,7 +23447,7 @@
         <v>922</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>923</v>
@@ -23602,7 +23602,7 @@
         <v>942</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>817</v>
@@ -23617,7 +23617,7 @@
         <v>944</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>817</v>
@@ -23632,7 +23632,7 @@
         <v>946</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>817</v>
@@ -23647,7 +23647,7 @@
         <v>948</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>817</v>
@@ -23662,7 +23662,7 @@
         <v>950</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>817</v>
@@ -23763,7 +23763,7 @@
         <v>845</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>817</v>
@@ -23778,7 +23778,7 @@
         <v>847</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>817</v>
@@ -23793,7 +23793,7 @@
         <v>849</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>817</v>
@@ -23808,7 +23808,7 @@
         <v>851</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>817</v>
@@ -23823,7 +23823,7 @@
         <v>853</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>817</v>
@@ -23838,7 +23838,7 @@
         <v>855</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>817</v>
@@ -23853,7 +23853,7 @@
         <v>857</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>817</v>
@@ -23868,7 +23868,7 @@
         <v>859</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>817</v>
@@ -23883,7 +23883,7 @@
         <v>861</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>817</v>
@@ -23898,7 +23898,7 @@
         <v>863</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>817</v>
@@ -23913,7 +23913,7 @@
         <v>865</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>817</v>
@@ -23928,7 +23928,7 @@
         <v>867</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>817</v>
@@ -23943,7 +23943,7 @@
         <v>869</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>817</v>
@@ -23958,7 +23958,7 @@
         <v>871</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>817</v>
@@ -23973,7 +23973,7 @@
         <v>873</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>817</v>
@@ -24081,16 +24081,16 @@
   <sheetPr/>
   <dimension ref="A1:L16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="46.6583333333333" style="24" customWidth="1"/>
-    <col min="2" max="2" width="21.775" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.4416666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.6583333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.4416666666667" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.775" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.6583333333333" style="8" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="19.4416666666667" style="8" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.6583333333333" style="8" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20.3333333333333" style="8" hidden="1" customWidth="1"/>
@@ -24103,11 +24103,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -24135,11 +24135,11 @@
       <c r="A2" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>121</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>22</v>
@@ -24155,11 +24155,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>22</v>
@@ -24175,11 +24175,11 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="25"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>126</v>
@@ -24195,11 +24195,11 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="25"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>129</v>
@@ -24217,11 +24217,11 @@
       <c r="A6" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>13</v>
@@ -24237,11 +24237,11 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="33"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>133</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="27">
         <v>1</v>
@@ -24261,11 +24261,11 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="33"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>135</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="27">
         <v>20</v>
@@ -24283,11 +24283,11 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="33"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="27">
         <v>64</v>
@@ -24305,11 +24305,11 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="33"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="27">
         <v>20</v>
@@ -24329,11 +24329,11 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="33"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>140</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>141</v>
@@ -24344,11 +24344,11 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="33"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D12" s="27">
         <v>64</v>
@@ -24366,11 +24366,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="33"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>144</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D13" s="27">
         <v>20</v>
@@ -24388,11 +24388,11 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="33"/>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>146</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D14" s="27">
         <v>64</v>
@@ -24410,11 +24410,11 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="33"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D15" s="27">
         <v>64</v>
@@ -24432,11 +24432,11 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="33"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>150</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D16" s="27">
         <v>64</v>
@@ -24454,11 +24454,11 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="33"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>152</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D17" s="27">
         <v>64</v>
@@ -24476,11 +24476,11 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="33"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>154</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D18" s="27">
         <v>20</v>
@@ -24498,11 +24498,11 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="33"/>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>155</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D19" s="27">
         <v>64</v>
@@ -24520,11 +24520,11 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="33"/>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D20" s="27">
         <v>20</v>
@@ -24542,11 +24542,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="33"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D21" s="27">
         <v>64</v>
@@ -24564,11 +24564,11 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="33"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D22" s="27">
         <v>64</v>
@@ -24586,11 +24586,11 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="33"/>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D23" s="27">
         <v>64</v>
@@ -24608,11 +24608,11 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="33"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D24" s="27">
         <v>64</v>
@@ -24630,11 +24630,11 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="33"/>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>11</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D25" s="27">
         <v>64</v>
@@ -24652,11 +24652,11 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="33"/>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D26" s="27">
         <v>64</v>
@@ -24674,11 +24674,11 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="33"/>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D27" s="27">
         <v>64</v>
@@ -24696,11 +24696,11 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="33"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>166</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D28" s="27">
         <v>20</v>
@@ -24720,11 +24720,11 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="33"/>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="10"/>
@@ -24738,11 +24738,11 @@
       <c r="A30" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>13</v>
@@ -24764,11 +24764,11 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="33"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>117</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>39</v>
@@ -24791,11 +24791,11 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="33"/>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>39</v>
@@ -24819,11 +24819,11 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="33"/>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>173</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>39</v>
@@ -24841,11 +24841,11 @@
       <c r="A34" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>176</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>13</v>
@@ -24867,11 +24867,11 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="33"/>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>22</v>
@@ -24893,11 +24893,11 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="33"/>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>180</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>22</v>
@@ -24919,11 +24919,11 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="33"/>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>182</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>22</v>
@@ -24943,11 +24943,11 @@
       <c r="A38" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>185</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>13</v>
@@ -24963,11 +24963,11 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="37"/>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D39" s="27">
         <v>11</v>
@@ -24983,11 +24983,11 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="37"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>189</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D40" s="27">
         <v>11</v>
@@ -25003,11 +25003,11 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="37"/>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D41" s="27">
         <v>11</v>
@@ -25023,11 +25023,11 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="37"/>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>192</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>13</v>
@@ -25043,11 +25043,11 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="37"/>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>194</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>22</v>
@@ -25063,11 +25063,11 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="37"/>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>196</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D44" s="27" t="s">
         <v>80</v>
@@ -25083,11 +25083,11 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="37"/>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>13</v>
@@ -25103,11 +25103,11 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="37"/>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>199</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>80</v>
@@ -25123,11 +25123,11 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="37"/>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>201</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>22</v>
@@ -25145,11 +25145,11 @@
       <c r="A48" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D48" s="27" t="s">
         <v>22</v>
@@ -25171,11 +25171,11 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="33"/>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>206</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>22</v>
@@ -25197,11 +25197,11 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="33"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>22</v>
@@ -25221,11 +25221,11 @@
       <c r="A51" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>185</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>13</v>
@@ -25241,11 +25241,11 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="33"/>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>210</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>39</v>
@@ -25261,11 +25261,11 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="33"/>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>26</v>
@@ -25283,11 +25283,11 @@
       <c r="A54" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>214</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>13</v>
@@ -25303,11 +25303,11 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="33"/>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>216</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>39</v>
@@ -25323,11 +25323,11 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="33"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>39</v>
@@ -25343,11 +25343,11 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="33"/>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>220</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>129</v>
@@ -25363,11 +25363,11 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="33"/>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>222</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>39</v>
@@ -25383,11 +25383,11 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="33"/>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>224</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>39</v>
@@ -25403,11 +25403,11 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="33"/>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>226</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>39</v>
@@ -25423,11 +25423,11 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="33"/>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>228</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>39</v>
@@ -25443,11 +25443,11 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="33"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>29</v>
@@ -25463,11 +25463,11 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="33"/>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>26</v>
@@ -25485,11 +25485,11 @@
       <c r="A64" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>185</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>13</v>
@@ -25505,11 +25505,11 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="33"/>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>235</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>39</v>
@@ -25525,11 +25525,11 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="33"/>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>237</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>39</v>
@@ -25545,11 +25545,11 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="33"/>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>239</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>39</v>
@@ -25565,11 +25565,11 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="33"/>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>26</v>
@@ -25585,11 +25585,11 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="33"/>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>26</v>
@@ -25605,11 +25605,11 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="33"/>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>241</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>29</v>
@@ -25625,11 +25625,11 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="33"/>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>206</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>39</v>
@@ -25647,11 +25647,11 @@
       <c r="A72" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>245</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>39</v>
@@ -25667,11 +25667,11 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="33"/>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>247</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>39</v>
@@ -25687,11 +25687,11 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="33"/>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>249</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>39</v>
@@ -25707,11 +25707,11 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="33"/>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>251</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>39</v>
@@ -25727,11 +25727,11 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="33"/>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>253</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D76" s="27">
         <v>4</v>
@@ -25747,11 +25747,11 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="33"/>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>255</v>
@@ -25769,11 +25769,11 @@
       <c r="A78" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>257</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>13</v>
@@ -25789,11 +25789,11 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="33"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>259</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>22</v>
@@ -25809,11 +25809,11 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="33"/>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D80" s="27" t="s">
         <v>22</v>
@@ -25829,11 +25829,11 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="33"/>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>262</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D81" s="27" t="s">
         <v>22</v>
@@ -25849,11 +25849,11 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="33"/>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>26</v>
@@ -25871,11 +25871,11 @@
       <c r="A83" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>265</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>13</v>
@@ -25891,11 +25891,11 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="33"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>22</v>
@@ -25911,11 +25911,11 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="33"/>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>267</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>22</v>
@@ -25931,11 +25931,11 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="33"/>
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="24" t="s">
         <v>269</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>22</v>
@@ -25951,10 +25951,10 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="33"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="24" t="s">
         <v>271</v>
       </c>
       <c r="D87" s="27" t="s">
@@ -25973,11 +25973,11 @@
       <c r="A88" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>275</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>141</v>
@@ -25993,11 +25993,11 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="33"/>
-      <c r="B89" s="24" t="s">
+      <c r="B89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>277</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D89" s="27" t="s">
         <v>141</v>
@@ -26015,11 +26015,11 @@
       <c r="A90" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>275</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D90" s="27" t="s">
         <v>141</v>
@@ -26035,11 +26035,11 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="33"/>
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="24" t="s">
         <v>280</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D91" s="27" t="s">
         <v>141</v>
@@ -26057,11 +26057,11 @@
       <c r="A92" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>275</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D92" s="27" t="s">
         <v>141</v>
@@ -26077,11 +26077,11 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="33"/>
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="24" t="s">
         <v>283</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D93" s="27" t="s">
         <v>141</v>
@@ -26099,11 +26099,11 @@
       <c r="A94" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>275</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>141</v>
@@ -26119,11 +26119,11 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="33"/>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>286</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D95" s="27" t="s">
         <v>141</v>
@@ -26141,11 +26141,11 @@
       <c r="A96" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D96" s="27">
         <v>19</v>
@@ -26161,11 +26161,11 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="37"/>
-      <c r="B97" s="24" t="s">
+      <c r="B97" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="24" t="s">
         <v>290</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D97" s="27">
         <v>2</v>
@@ -26181,11 +26181,11 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="37"/>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>292</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D98" s="27">
         <v>32</v>
@@ -26201,11 +26201,11 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="37"/>
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="24" t="s">
         <v>294</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D99" s="27">
         <v>6</v>
@@ -26223,11 +26223,11 @@
       <c r="A100" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D100" s="27">
         <v>19</v>
@@ -26243,11 +26243,11 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="37"/>
-      <c r="B101" s="24" t="s">
+      <c r="B101" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>297</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D101" s="27">
         <v>32</v>
@@ -26263,11 +26263,11 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="37"/>
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>299</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D102" s="27">
         <v>64</v>
@@ -26283,11 +26283,11 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="37"/>
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>301</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D103" s="27">
         <v>32</v>
@@ -26305,11 +26305,11 @@
       <c r="A104" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D104" s="27">
         <v>19</v>
@@ -26325,11 +26325,11 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="37"/>
-      <c r="B105" s="24" t="s">
+      <c r="B105" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="24" t="s">
         <v>304</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D105" s="27">
         <v>3</v>
@@ -26345,10 +26345,10 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="37"/>
-      <c r="B106" s="24" t="s">
+      <c r="B106" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="24" t="s">
         <v>307</v>
       </c>
       <c r="D106" s="27"/>
@@ -26363,11 +26363,11 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="37"/>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="24" t="s">
         <v>309</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="D107" s="27"/>
       <c r="E107"/>
@@ -26383,11 +26383,11 @@
       <c r="A108" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="B108" s="24" t="s">
+      <c r="B108" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D108" s="27">
         <v>19</v>
@@ -26403,11 +26403,11 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="37"/>
-      <c r="B109" s="24" t="s">
+      <c r="B109" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="24" t="s">
         <v>312</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D109" s="27" t="s">
         <v>22</v>
@@ -26423,11 +26423,11 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="37"/>
-      <c r="B110" s="24" t="s">
+      <c r="B110" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="24" t="s">
         <v>314</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D110" s="27">
         <v>4</v>
@@ -26443,11 +26443,11 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="37"/>
-      <c r="B111" s="24" t="s">
+      <c r="B111" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C111" s="24" t="s">
         <v>316</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="D111" s="27"/>
       <c r="E111"/>
@@ -26461,11 +26461,11 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="37"/>
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="24" t="s">
         <v>318</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D112" s="27">
         <v>512</v>
@@ -26483,28 +26483,28 @@
     <row r="114" customFormat="1"/>
     <row r="115" customFormat="1" spans="1:3">
       <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="40"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="24"/>
     </row>
     <row r="116" customFormat="1" spans="1:3">
       <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="40"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="24"/>
     </row>
     <row r="117" customFormat="1" spans="1:3">
       <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="40"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="24"/>
     </row>
     <row r="118" customFormat="1" spans="1:3">
       <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="40"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="24"/>
     </row>
     <row r="119" customFormat="1" spans="1:4">
       <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="40"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="24"/>
       <c r="D119" s="8"/>
     </row>
     <row r="120" customFormat="1" spans="1:4">
@@ -42800,16 +42800,6 @@
     <mergeCell ref="A104:A107"/>
     <mergeCell ref="A108:A112"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
     <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
@@ -42822,6 +42812,16 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
     <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 C1">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E1 B1">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45957,7 +45957,7 @@
         <v>500</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>501</v>
@@ -46055,7 +46055,7 @@
         <v>415</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>501</v>
@@ -46075,7 +46075,7 @@
         <v>506</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>501</v>
@@ -46095,7 +46095,7 @@
         <v>508</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>501</v>
@@ -46311,7 +46311,7 @@
         <v>413</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>501</v>
@@ -47239,7 +47239,7 @@
         <v>413</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>501</v>
@@ -47398,7 +47398,7 @@
         <v>592</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>501</v>
